--- a/2022-08-18 Prepare for UTSA/STARR.SGLT2.V5.agg.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.SGLT2.V5.agg.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="313">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -74,42 +74,42 @@
     <t>Q30 Bases in RNA Read</t>
   </si>
   <si>
+    <t>Q30 Bases in UMI</t>
+  </si>
+  <si>
+    <t>Reads Mapped to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intergenic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intronic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Exonic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Transcriptome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Antisense to Gene</t>
+  </si>
+  <si>
+    <t>Fraction Reads in Cells</t>
+  </si>
+  <si>
+    <t>Total Genes Detected</t>
+  </si>
+  <si>
+    <t>Median UMI Counts per Cell</t>
+  </si>
+  <si>
     <t>Q30 Bases in Sample Index</t>
   </si>
   <si>
-    <t>Q30 Bases in UMI</t>
-  </si>
-  <si>
-    <t>Reads Mapped to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intergenic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intronic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Exonic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Transcriptome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Antisense to Gene</t>
-  </si>
-  <si>
-    <t>Fraction Reads in Cells</t>
-  </si>
-  <si>
-    <t>Total Genes Detected</t>
-  </si>
-  <si>
-    <t>Median UMI Counts per Cell</t>
-  </si>
-  <si>
     <t>Agg</t>
   </si>
   <si>
@@ -227,9 +227,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>76615_V5</t>
   </si>
   <si>
@@ -263,18 +260,6 @@
     <t>STARR_026</t>
   </si>
   <si>
-    <t>STARR_028</t>
-  </si>
-  <si>
-    <t>STARR_031</t>
-  </si>
-  <si>
-    <t>STARR_032</t>
-  </si>
-  <si>
-    <t>STARR_039</t>
-  </si>
-  <si>
     <t>STARR_041</t>
   </si>
   <si>
@@ -353,9 +338,6 @@
     <t>20220616_L1_Counts</t>
   </si>
   <si>
-    <t>20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
     <t>20220715_Counts</t>
   </si>
   <si>
@@ -392,15 +374,6 @@
     <t>STARR_026_combine_force8966</t>
   </si>
   <si>
-    <t>STARR_031_force2072</t>
-  </si>
-  <si>
-    <t>STARR_032_force3767</t>
-  </si>
-  <si>
-    <t>STARR_039_force2000</t>
-  </si>
-  <si>
     <t>STARR_041_combine3</t>
   </si>
   <si>
@@ -446,9 +419,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>Jia</t>
   </si>
   <si>
@@ -488,18 +458,6 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8966/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3767/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/molecule_info.h5</t>
-  </si>
-  <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -587,18 +545,6 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8966/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3767/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/metrics_summary.csv</t>
-  </si>
-  <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -686,9 +632,6 @@
     <t>10X30671</t>
   </si>
   <si>
-    <t>10X30891</t>
-  </si>
-  <si>
     <t>10X31081</t>
   </si>
   <si>
@@ -713,9 +656,6 @@
     <t>P20220001</t>
   </si>
   <si>
-    <t>P1111192</t>
-  </si>
-  <si>
     <t>P20220010</t>
   </si>
   <si>
@@ -761,15 +701,6 @@
     <t>SI-GA-F7</t>
   </si>
   <si>
-    <t>SI-GA-C8</t>
-  </si>
-  <si>
-    <t>SI-GA-G8</t>
-  </si>
-  <si>
-    <t>SI-GA-H12</t>
-  </si>
-  <si>
     <t>SI-GA-C7</t>
   </si>
   <si>
@@ -839,15 +770,6 @@
     <t>CGTGCAGA, AACAAGAT, TCGCTTCG, GTATGCTC</t>
   </si>
   <si>
-    <t>GTTGAGAA, AGATCTGG, TCGATACT, CACCGCTC</t>
-  </si>
-  <si>
-    <t>TATGAGCT, CCGATAGC, ATACCCAA, GGCTGTTG</t>
-  </si>
-  <si>
-    <t>GACAGCAT,TTTGTACA,AGGCCGTG,CCATATGC</t>
-  </si>
-  <si>
     <t>GTCTCTCG,AATCTCTC,CGGAGGGA,TCAGAAAT</t>
   </si>
   <si>
@@ -1014,9 +936,6 @@
   </si>
   <si>
     <t>20220616_L1_fastq_single</t>
-  </si>
-  <si>
-    <t>20191121_NovaSeq_fastq</t>
   </si>
   <si>
     <t>20220616_L1_fastq_dual</t>
@@ -1299,25 +1218,25 @@
         <v>#N/A</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H2" t="n">
         <v>35.0</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K2" t="n">
         <v>281.0</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M2" t="n">
         <v>10739.0</v>
@@ -1343,44 +1262,44 @@
       <c r="T2" t="n">
         <v>93.1</v>
       </c>
-      <c r="U2" t="e">
-        <v>#N/A</v>
+      <c r="U2" t="n">
+        <v>95.1</v>
       </c>
       <c r="V2" t="n">
-        <v>95.1</v>
+        <v>97.1</v>
       </c>
       <c r="W2" t="n">
-        <v>97.1</v>
+        <v>91.4</v>
       </c>
       <c r="X2" t="n">
-        <v>91.4</v>
+        <v>8.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.0</v>
+        <v>60.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>23.3</v>
+        <v>69.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.5</v>
+        <v>12.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.0</v>
+        <v>81.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>81.9</v>
+        <v>28312.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>28312.0</v>
-      </c>
-      <c r="AF2" t="n">
         <v>4261.0</v>
       </c>
+      <c r="AF2" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH2" t="e">
         <v>#N/A</v>
@@ -1389,43 +1308,43 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="AM2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AR2" t="n">
         <v>2.0200909E7</v>
       </c>
       <c r="AS2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="AT2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AU2" t="n">
         <v>10000.0</v>
       </c>
       <c r="AV2" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="AW2" t="n">
         <v>75000.0</v>
@@ -1440,16 +1359,16 @@
         <v>3.0E9</v>
       </c>
       <c r="BA2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="BB2" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="BC2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="BD2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="BE2" t="n">
         <v>30.3</v>
@@ -1458,19 +1377,19 @@
         <v>415.0</v>
       </c>
       <c r="BG2" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="BH2" t="n">
         <v>50.0</v>
       </c>
       <c r="BI2" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ2" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK2" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL2" t="e">
         <v>#N/A</v>
@@ -1479,7 +1398,7 @@
         <v>#N/A</v>
       </c>
       <c r="BN2" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -1499,25 +1418,25 @@
         <v>#N/A</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H3" t="n">
         <v>58.0</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K3" t="n">
         <v>291.0</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M3" t="n">
         <v>9721.0</v>
@@ -1543,44 +1462,44 @@
       <c r="T3" t="n">
         <v>92.4</v>
       </c>
-      <c r="U3" t="e">
-        <v>#N/A</v>
+      <c r="U3" t="n">
+        <v>94.3</v>
       </c>
       <c r="V3" t="n">
-        <v>94.3</v>
+        <v>94.7</v>
       </c>
       <c r="W3" t="n">
-        <v>94.7</v>
+        <v>87.7</v>
       </c>
       <c r="X3" t="n">
-        <v>87.7</v>
+        <v>8.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.3</v>
+        <v>60.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>60.2</v>
+        <v>19.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.2</v>
+        <v>68.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.6</v>
+        <v>8.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.9</v>
+        <v>82.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>82.8</v>
+        <v>29313.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>29313.0</v>
-      </c>
-      <c r="AF3" t="n">
         <v>12182.0</v>
       </c>
+      <c r="AF3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH3" t="e">
         <v>#N/A</v>
@@ -1589,34 +1508,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AM3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="AR3" t="n">
         <v>2.0210408E7</v>
       </c>
       <c r="AS3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="AT3" t="e">
         <v>#N/A</v>
@@ -1625,7 +1544,7 @@
         <v>8410.0</v>
       </c>
       <c r="AV3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AW3" t="n">
         <v>28640.0</v>
@@ -1640,16 +1559,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="BB3" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="BC3" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BD3" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BE3" t="n">
         <v>3.26</v>
@@ -1658,28 +1577,28 @@
         <v>494.0</v>
       </c>
       <c r="BG3" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH3" t="n">
         <v>25.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ3" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK3" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL3" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="BM3" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="BN3" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
@@ -1699,25 +1618,25 @@
         <v>#N/A</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H4" t="n">
         <v>66.0</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K4" t="n">
         <v>292.0</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M4" t="n">
         <v>9455.0</v>
@@ -1743,44 +1662,44 @@
       <c r="T4" t="n">
         <v>93.3</v>
       </c>
-      <c r="U4" t="e">
-        <v>#N/A</v>
+      <c r="U4" t="n">
+        <v>94.9</v>
       </c>
       <c r="V4" t="n">
-        <v>94.9</v>
+        <v>96.0</v>
       </c>
       <c r="W4" t="n">
-        <v>96.0</v>
+        <v>89.9</v>
       </c>
       <c r="X4" t="n">
-        <v>89.9</v>
+        <v>8.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.1</v>
+        <v>60.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>68.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.2</v>
+        <v>11.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.7</v>
+        <v>89.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>89.6</v>
+        <v>29020.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>29020.0</v>
-      </c>
-      <c r="AF4" t="n">
         <v>7138.0</v>
       </c>
+      <c r="AF4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH4" t="e">
         <v>#N/A</v>
@@ -1789,43 +1708,43 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AM4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AR4" t="n">
         <v>2.0210623E7</v>
       </c>
       <c r="AS4" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="AT4" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="AU4" t="n">
         <v>7769.0</v>
       </c>
       <c r="AV4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="AW4" t="n">
         <v>58060.0</v>
@@ -1840,16 +1759,16 @@
         <v>3.084510832E9</v>
       </c>
       <c r="BA4" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="BB4" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="BC4" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="BD4" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="BE4" t="n">
         <v>7.11</v>
@@ -1858,28 +1777,28 @@
         <v>483.0</v>
       </c>
       <c r="BG4" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="BH4" t="n">
         <v>25.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ4" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK4" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL4" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="BM4" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="BN4" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -1899,25 +1818,25 @@
         <v>#N/A</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H5" t="n">
         <v>61.0</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K5" t="n">
         <v>118.0</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M5" t="n">
         <v>3970.0</v>
@@ -1943,44 +1862,44 @@
       <c r="T5" t="n">
         <v>91.4</v>
       </c>
-      <c r="U5" t="e">
-        <v>#N/A</v>
+      <c r="U5" t="n">
+        <v>94.7</v>
       </c>
       <c r="V5" t="n">
-        <v>94.7</v>
+        <v>92.5</v>
       </c>
       <c r="W5" t="n">
-        <v>92.5</v>
+        <v>84.8</v>
       </c>
       <c r="X5" t="n">
-        <v>84.8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>56.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>56.9</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.5</v>
+        <v>66.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>74.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>74.0</v>
+        <v>27459.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>27459.0</v>
-      </c>
-      <c r="AF5" t="n">
         <v>3098.0</v>
       </c>
+      <c r="AF5" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH5" t="e">
         <v>#N/A</v>
@@ -1989,43 +1908,43 @@
         <v>2.0211117E7</v>
       </c>
       <c r="AJ5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN5" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ5" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AR5" t="n">
         <v>2.0210707E7</v>
       </c>
       <c r="AS5" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="AT5" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="AU5" t="n">
         <v>3870.0</v>
       </c>
       <c r="AV5" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AW5" t="n">
         <v>8371.0</v>
@@ -2040,16 +1959,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="BB5" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="BC5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="BD5" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="BE5" t="n">
         <v>3.26</v>
@@ -2058,28 +1977,28 @@
         <v>494.0</v>
       </c>
       <c r="BG5" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH5" t="n">
         <v>25.0</v>
       </c>
       <c r="BI5" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ5" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK5" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL5" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="BM5" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="BN5" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6">
@@ -2099,25 +2018,25 @@
         <v>#N/A</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H6" t="n">
         <v>64.0</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K6" t="n">
         <v>287.0</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M6" t="n">
         <v>14435.0</v>
@@ -2143,44 +2062,44 @@
       <c r="T6" t="n">
         <v>92.9</v>
       </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
+      <c r="U6" t="n">
+        <v>94.3</v>
       </c>
       <c r="V6" t="n">
-        <v>94.3</v>
+        <v>95.8</v>
       </c>
       <c r="W6" t="n">
-        <v>95.8</v>
+        <v>90.5</v>
       </c>
       <c r="X6" t="n">
-        <v>90.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.4</v>
+        <v>60.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>60.8</v>
+        <v>22.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.3</v>
+        <v>53.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>53.7</v>
+        <v>27.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>27.9</v>
+        <v>82.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>82.4</v>
+        <v>30088.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>30088.0</v>
-      </c>
-      <c r="AF6" t="n">
         <v>6185.0</v>
       </c>
+      <c r="AF6" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH6" t="e">
         <v>#N/A</v>
@@ -2189,43 +2108,43 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AM6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP6" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ6" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AR6" t="n">
         <v>2.0210723E7</v>
       </c>
       <c r="AS6" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="AT6" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AU6" t="n">
         <v>14332.0</v>
       </c>
       <c r="AV6" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AW6" t="n">
         <v>65351.0</v>
@@ -2240,16 +2159,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA6" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="BB6" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="BC6" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="BD6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="BE6" t="n">
         <v>3.26</v>
@@ -2258,28 +2177,28 @@
         <v>494.0</v>
       </c>
       <c r="BG6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH6" t="n">
         <v>25.0</v>
       </c>
       <c r="BI6" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ6" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK6" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="BM6" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="BN6" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7">
@@ -2299,25 +2218,25 @@
         <v>#N/A</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H7" t="n">
         <v>126.0</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K7" t="n">
         <v>297.0</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M7" t="n">
         <v>17531.0</v>
@@ -2343,44 +2262,44 @@
       <c r="T7" t="n">
         <v>94.3</v>
       </c>
-      <c r="U7" t="e">
-        <v>#N/A</v>
+      <c r="U7" t="n">
+        <v>95.8</v>
       </c>
       <c r="V7" t="n">
         <v>95.8</v>
       </c>
       <c r="W7" t="n">
-        <v>95.8</v>
+        <v>89.8</v>
       </c>
       <c r="X7" t="n">
-        <v>89.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>58.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>58.9</v>
+        <v>22.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.6</v>
+        <v>57.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>57.6</v>
+        <v>22.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>22.3</v>
+        <v>83.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>83.0</v>
+        <v>29995.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>29995.0</v>
-      </c>
-      <c r="AF7" t="n">
         <v>5013.0</v>
       </c>
+      <c r="AF7" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH7" t="e">
         <v>#N/A</v>
@@ -2389,34 +2308,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AM7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="AR7" t="n">
         <v>2.022012E7</v>
       </c>
       <c r="AS7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AT7" t="e">
         <v>#N/A</v>
@@ -2425,7 +2344,7 @@
         <v>14606.0</v>
       </c>
       <c r="AV7" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="AW7" t="n">
         <v>38939.0</v>
@@ -2440,16 +2359,16 @@
         <v>2.454088919E9</v>
       </c>
       <c r="BA7" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="BB7" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="BC7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="BD7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="BE7" t="n">
         <v>2.97</v>
@@ -2458,28 +2377,28 @@
         <v>450.0</v>
       </c>
       <c r="BG7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH7" t="n">
         <v>30.0</v>
       </c>
       <c r="BI7" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ7" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK7" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL7" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="BM7" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="BN7" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8">
@@ -2499,25 +2418,25 @@
         <v>#N/A</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H8" t="n">
         <v>127.0</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K8" t="n">
         <v>298.0</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>14743.0</v>
@@ -2543,44 +2462,44 @@
       <c r="T8" t="n">
         <v>94.2</v>
       </c>
-      <c r="U8" t="e">
-        <v>#N/A</v>
+      <c r="U8" t="n">
+        <v>96.0</v>
       </c>
       <c r="V8" t="n">
-        <v>96.0</v>
+        <v>96.6</v>
       </c>
       <c r="W8" t="n">
-        <v>96.6</v>
+        <v>90.4</v>
       </c>
       <c r="X8" t="n">
-        <v>90.4</v>
+        <v>8.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.0</v>
+        <v>59.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>59.0</v>
+        <v>23.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.4</v>
+        <v>64.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>64.0</v>
+        <v>16.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.7</v>
+        <v>85.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>85.3</v>
+        <v>29313.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>29313.0</v>
-      </c>
-      <c r="AF8" t="n">
         <v>4230.0</v>
       </c>
+      <c r="AF8" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH8" t="e">
         <v>#N/A</v>
@@ -2589,34 +2508,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AM8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO8" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP8" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ8" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AR8" t="n">
         <v>2.0220211E7</v>
       </c>
       <c r="AS8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AT8" t="e">
         <v>#N/A</v>
@@ -2625,7 +2544,7 @@
         <v>11091.0</v>
       </c>
       <c r="AV8" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="AW8" t="n">
         <v>26561.0</v>
@@ -2640,16 +2559,16 @@
         <v>2.454088919E9</v>
       </c>
       <c r="BA8" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="BB8" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="BC8" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="BD8" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="BE8" t="n">
         <v>2.97</v>
@@ -2658,28 +2577,28 @@
         <v>450.0</v>
       </c>
       <c r="BG8" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH8" t="n">
         <v>30.0</v>
       </c>
       <c r="BI8" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ8" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK8" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL8" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="BM8" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="BN8" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
@@ -2699,25 +2618,25 @@
         <v>#N/A</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H9" t="n">
         <v>17.0</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K9" t="n">
         <v>230.0</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>12660.0</v>
@@ -2743,44 +2662,44 @@
       <c r="T9" t="n">
         <v>94.5</v>
       </c>
-      <c r="U9" t="e">
-        <v>#N/A</v>
+      <c r="U9" t="n">
+        <v>96.3</v>
       </c>
       <c r="V9" t="n">
-        <v>96.3</v>
+        <v>94.5</v>
       </c>
       <c r="W9" t="n">
-        <v>94.5</v>
+        <v>83.6</v>
       </c>
       <c r="X9" t="n">
-        <v>83.6</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>57.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>57.4</v>
+        <v>17.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.7</v>
+        <v>68.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>68.1</v>
+        <v>5.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.0</v>
+        <v>74.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>74.2</v>
+        <v>28572.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>28572.0</v>
-      </c>
-      <c r="AF9" t="n">
         <v>2974.0</v>
       </c>
+      <c r="AF9" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG9" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH9" t="e">
         <v>#N/A</v>
@@ -2789,37 +2708,37 @@
         <v>2.0220802E7</v>
       </c>
       <c r="AJ9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AM9" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN9" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO9" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP9" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ9" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AR9" t="n">
         <v>2.0190603E7</v>
       </c>
       <c r="AS9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT9" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="AU9" t="n">
         <v>10000.0</v>
@@ -2840,16 +2759,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA9" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="BB9" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="BC9" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BD9" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BE9" t="e">
         <v>#N/A</v>
@@ -2864,22 +2783,22 @@
         <v>20.0</v>
       </c>
       <c r="BI9" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ9" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="BK9" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="BL9" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM9" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="BN9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2899,25 +2818,25 @@
         <v>#N/A</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H10" t="n">
         <v>18.0</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K10" t="n">
         <v>267.0</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>7398.0</v>
@@ -2943,44 +2862,44 @@
       <c r="T10" t="n">
         <v>94.7</v>
       </c>
-      <c r="U10" t="e">
-        <v>#N/A</v>
+      <c r="U10" t="n">
+        <v>96.6</v>
       </c>
       <c r="V10" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="W10" t="n">
-        <v>96.7</v>
+        <v>91.4</v>
       </c>
       <c r="X10" t="n">
-        <v>91.4</v>
+        <v>8.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.1</v>
+        <v>62.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>62.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>76.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>76.1</v>
+        <v>4.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.9</v>
+        <v>85.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>85.7</v>
+        <v>27161.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>27161.0</v>
-      </c>
-      <c r="AF10" t="n">
         <v>6703.0</v>
       </c>
+      <c r="AF10" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH10" t="e">
         <v>#N/A</v>
@@ -2989,37 +2908,37 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL10" t="s">
         <v>145</v>
       </c>
-      <c r="AK10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>155</v>
-      </c>
       <c r="AM10" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN10" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO10" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP10" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ10" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="AR10" t="n">
         <v>2.0190624E7</v>
       </c>
       <c r="AS10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AU10" t="n">
         <v>10000.0</v>
@@ -3040,16 +2959,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA10" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="BB10" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="BC10" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BD10" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BE10" t="e">
         <v>#N/A</v>
@@ -3064,22 +2983,22 @@
         <v>45.0</v>
       </c>
       <c r="BI10" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ10" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="BK10" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="BL10" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM10" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="BN10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -3099,25 +3018,25 @@
         <v>#N/A</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H11" t="n">
         <v>48.0</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K11" t="n">
         <v>266.0</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>9907.0</v>
@@ -3143,44 +3062,44 @@
       <c r="T11" t="n">
         <v>93.6</v>
       </c>
-      <c r="U11" t="e">
-        <v>#N/A</v>
+      <c r="U11" t="n">
+        <v>94.6</v>
       </c>
       <c r="V11" t="n">
-        <v>94.6</v>
+        <v>96.6</v>
       </c>
       <c r="W11" t="n">
-        <v>96.6</v>
+        <v>88.7</v>
       </c>
       <c r="X11" t="n">
-        <v>88.7</v>
+        <v>9.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.8</v>
+        <v>62.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>62.3</v>
+        <v>16.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>16.6</v>
+        <v>71.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>71.7</v>
+        <v>5.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.1</v>
+        <v>69.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>69.2</v>
+        <v>28155.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>28155.0</v>
-      </c>
-      <c r="AF11" t="n">
         <v>5863.0</v>
       </c>
+      <c r="AF11" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH11" t="e">
         <v>#N/A</v>
@@ -3189,34 +3108,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL11" t="s">
         <v>146</v>
       </c>
-      <c r="AL11" t="s">
-        <v>156</v>
-      </c>
       <c r="AM11" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN11" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO11" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ11" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AR11" t="n">
         <v>2.0190829E7</v>
       </c>
       <c r="AS11" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="AT11" t="e">
         <v>#N/A</v>
@@ -3225,7 +3144,7 @@
         <v>8714.0</v>
       </c>
       <c r="AV11" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AW11" t="n">
         <v>50000.0</v>
@@ -3240,16 +3159,16 @@
         <v>2.99217E9</v>
       </c>
       <c r="BA11" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="BB11" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="BC11" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BD11" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BE11" t="n">
         <v>3.0</v>
@@ -3258,28 +3177,28 @@
         <v>448.0</v>
       </c>
       <c r="BG11" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH11" t="n">
         <v>50.0</v>
       </c>
       <c r="BI11" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ11" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK11" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL11" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="BM11" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="BN11" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12">
@@ -3299,25 +3218,25 @@
         <v>#N/A</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H12" t="n">
         <v>70.0</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K12" t="n">
         <v>247.0</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
         <v>8966.0</v>
@@ -3343,44 +3262,44 @@
       <c r="T12" t="n">
         <v>93.7</v>
       </c>
-      <c r="U12" t="e">
-        <v>#N/A</v>
+      <c r="U12" t="n">
+        <v>95.3</v>
       </c>
       <c r="V12" t="n">
-        <v>95.3</v>
+        <v>96.7</v>
       </c>
       <c r="W12" t="n">
-        <v>96.7</v>
+        <v>90.4</v>
       </c>
       <c r="X12" t="n">
-        <v>90.4</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>63.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>63.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.3</v>
+        <v>75.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>75.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.2</v>
+        <v>64.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>64.4</v>
+        <v>26965.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>26965.0</v>
-      </c>
-      <c r="AF12" t="n">
         <v>3932.0</v>
       </c>
+      <c r="AF12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH12" t="e">
         <v>#N/A</v>
@@ -3389,34 +3308,34 @@
         <v>2.022081E7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AM12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>176</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>190</v>
       </c>
       <c r="AR12" t="n">
         <v>2.0190909E7</v>
       </c>
       <c r="AS12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT12" t="e">
         <v>#N/A</v>
@@ -3425,7 +3344,7 @@
         <v>6512.0</v>
       </c>
       <c r="AV12" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="AW12" t="n">
         <v>25000.0</v>
@@ -3440,16 +3359,16 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA12" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="BB12" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BD12" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BE12" t="e">
         <v>#N/A</v>
@@ -3458,239 +3377,239 @@
         <v>#N/A</v>
       </c>
       <c r="BG12" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="BH12" t="n">
         <v>20.0</v>
       </c>
       <c r="BI12" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ12" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK12" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL12" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="BM12" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="BN12" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
-        <v>2.529556633E9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.2</v>
+        <v>2.901329438E9</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H13" t="n">
-        <v>28.0</v>
+        <v>71.0</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K13" t="n">
-        <v>44.0</v>
+        <v>156.0</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>2288.0</v>
+        <v>15847.0</v>
       </c>
       <c r="N13" t="n">
-        <v>245361.0</v>
+        <v>97871.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1876.0</v>
+        <v>1959.0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.61385615E8</v>
+        <v>1.55096837E9</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="R13" t="n">
-        <v>94.5</v>
+        <v>81.8</v>
       </c>
       <c r="S13" t="n">
         <v>95.6</v>
       </c>
       <c r="T13" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="U13" t="e">
-        <v>#N/A</v>
+        <v>93.9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>95.1</v>
       </c>
       <c r="V13" t="n">
-        <v>95.2</v>
+        <v>94.4</v>
       </c>
       <c r="W13" t="n">
-        <v>94.7</v>
+        <v>82.2</v>
       </c>
       <c r="X13" t="n">
-        <v>86.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.0</v>
+        <v>53.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>50.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>26.2</v>
+        <v>68.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>71.4</v>
+        <v>4.9</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.8</v>
+        <v>79.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>73.5</v>
+        <v>29138.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>25014.0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>3777.0</v>
+        <v>3038.0</v>
+      </c>
+      <c r="AF13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI13" t="e">
-        <v>#N/A</v>
+        <v>134</v>
+      </c>
+      <c r="AH13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.0220624E7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AM13" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>177</v>
       </c>
-      <c r="AO13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>191</v>
-      </c>
       <c r="AR13" t="n">
-        <v>2.0190909E7</v>
+        <v>2.0190923E7</v>
       </c>
       <c r="AS13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT13" t="e">
-        <v>#N/A</v>
+        <v>82</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>206</v>
       </c>
       <c r="AU13" t="n">
-        <v>10000.0</v>
+        <v>12710.0</v>
       </c>
       <c r="AV13" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="AW13" t="n">
-        <v>50000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.0E8</v>
+        <v>4.4485E8</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1999992000032</v>
+        <v>0.151</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.50001E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="BB13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="BC13" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BD13" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BE13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="BF13" t="n">
-        <v>510.0</v>
+      <c r="BF13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BG13" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="BH13" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="BI13" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ13" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="BK13" t="s">
-        <v>316</v>
-      </c>
-      <c r="BL13" t="e">
-        <v>#N/A</v>
+        <v>289</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>291</v>
       </c>
       <c r="BM13" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="BN13" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>2.529556633E9</v>
+        <v>2.901329438E9</v>
       </c>
       <c r="D14" t="e">
         <v>#N/A</v>
@@ -3699,88 +3618,88 @@
         <v>#N/A</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H14" t="n">
-        <v>27.0</v>
+        <v>72.0</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K14" t="n">
-        <v>267.0</v>
+        <v>269.0</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M14" t="n">
-        <v>2072.0</v>
+        <v>9146.0</v>
       </c>
       <c r="N14" t="n">
-        <v>208533.0</v>
+        <v>95965.0</v>
       </c>
       <c r="O14" t="n">
-        <v>2300.0</v>
+        <v>2390.0</v>
       </c>
       <c r="P14" t="n">
-        <v>4.32080145E8</v>
+        <v>8.77693939E8</v>
       </c>
       <c r="Q14" t="n">
         <v>97.3</v>
       </c>
       <c r="R14" t="n">
-        <v>77.0</v>
+        <v>83.3</v>
       </c>
       <c r="S14" t="n">
-        <v>95.4</v>
+        <v>95.6</v>
       </c>
       <c r="T14" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="U14" t="e">
-        <v>#N/A</v>
+        <v>93.9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>95.1</v>
       </c>
       <c r="V14" t="n">
-        <v>95.0</v>
+        <v>92.3</v>
       </c>
       <c r="W14" t="n">
-        <v>94.6</v>
+        <v>80.9</v>
       </c>
       <c r="X14" t="n">
-        <v>77.4</v>
+        <v>7.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.4</v>
+        <v>55.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>50.8</v>
+        <v>17.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>19.3</v>
+        <v>67.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>64.5</v>
+        <v>3.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.7</v>
+        <v>79.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>38.1</v>
+        <v>27946.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>24817.0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>4672.0</v>
+        <v>5029.0</v>
+      </c>
+      <c r="AF14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG14" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH14" t="e">
         <v>#N/A</v>
@@ -3789,108 +3708,108 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN14" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>178</v>
       </c>
-      <c r="AP14" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>192</v>
-      </c>
       <c r="AR14" t="n">
-        <v>2.0190905E7</v>
+        <v>2.0201119E7</v>
       </c>
       <c r="AS14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT14" t="e">
-        <v>#N/A</v>
+        <v>83</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>207</v>
       </c>
       <c r="AU14" t="n">
-        <v>10000.0</v>
+        <v>9886.0</v>
       </c>
       <c r="AV14" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="AW14" t="n">
-        <v>50000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.0E8</v>
+        <v>2.4715E8</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.1999992000032</v>
+        <v>0.084</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.50001E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA14" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="BB14" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="BC14" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BD14" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BE14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="BF14" t="n">
-        <v>504.0</v>
+      <c r="BF14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BG14" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="BH14" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="BI14" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ14" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="BK14" t="s">
-        <v>316</v>
-      </c>
-      <c r="BL14" t="e">
-        <v>#N/A</v>
+        <v>289</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>291</v>
       </c>
       <c r="BM14" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="BN14" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
-        <v>2.529556633E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -3899,198 +3818,198 @@
         <v>#N/A</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H15" t="n">
-        <v>30.0</v>
+        <v>59.0</v>
       </c>
       <c r="I15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" t="s">
         <v>103</v>
       </c>
-      <c r="J15" t="s">
-        <v>113</v>
-      </c>
       <c r="K15" t="n">
-        <v>268.0</v>
+        <v>289.0</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M15" t="n">
-        <v>3767.0</v>
+        <v>8535.0</v>
       </c>
       <c r="N15" t="n">
-        <v>117996.0</v>
+        <v>90572.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1515.0</v>
+        <v>3594.0</v>
       </c>
       <c r="P15" t="n">
-        <v>4.44489382E8</v>
+        <v>7.7302905E8</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.9</v>
+        <v>97.5</v>
       </c>
       <c r="R15" t="n">
-        <v>90.2</v>
+        <v>67.7</v>
       </c>
       <c r="S15" t="n">
-        <v>95.4</v>
+        <v>94.6</v>
       </c>
       <c r="T15" t="n">
-        <v>92.9</v>
-      </c>
-      <c r="U15" t="e">
-        <v>#N/A</v>
+        <v>93.4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>94.1</v>
       </c>
       <c r="V15" t="n">
-        <v>95.0</v>
+        <v>96.4</v>
       </c>
       <c r="W15" t="n">
-        <v>90.8</v>
+        <v>89.7</v>
       </c>
       <c r="X15" t="n">
-        <v>80.3</v>
+        <v>7.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.7</v>
+        <v>61.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>56.2</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>16.4</v>
+        <v>73.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>67.0</v>
+        <v>6.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.5</v>
+        <v>79.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>64.4</v>
+        <v>28473.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>24483.0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>2687.0</v>
+        <v>10436.0</v>
+      </c>
+      <c r="AF15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH15" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AM15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>179</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>193</v>
-      </c>
       <c r="AR15" t="n">
-        <v>2.0191018E7</v>
+        <v>2.0210409E7</v>
       </c>
       <c r="AS15" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="AT15" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU15" t="n">
-        <v>10000.0</v>
+        <v>8464.0</v>
       </c>
       <c r="AV15" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="AW15" t="n">
-        <v>50001.0</v>
+        <v>35280.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.0001E8</v>
+        <v>2.9860992E8</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.2000031999872</v>
+        <v>0.0971397380115092</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2.50001E9</v>
+        <v>3.07402435E9</v>
       </c>
       <c r="BA15" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="BB15" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="BD15" t="s">
-        <v>290</v>
-      </c>
-      <c r="BE15" t="e">
-        <v>#N/A</v>
+        <v>264</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>3.26</v>
       </c>
       <c r="BF15" t="n">
-        <v>406.0</v>
+        <v>494.0</v>
       </c>
       <c r="BG15" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH15" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="BI15" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ15" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="BK15" t="s">
-        <v>316</v>
-      </c>
-      <c r="BL15" t="e">
-        <v>#N/A</v>
+        <v>289</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>291</v>
       </c>
       <c r="BM15" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="BN15" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.0210126E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C16" t="n">
-        <v>3.028254122E9</v>
+        <v>2.901329438E9</v>
       </c>
       <c r="D16" t="e">
         <v>#N/A</v>
@@ -4099,198 +4018,198 @@
         <v>#N/A</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H16" t="n">
-        <v>34.0</v>
+        <v>73.0</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
         <v>107</v>
       </c>
       <c r="K16" t="n">
-        <v>92.0</v>
+        <v>271.0</v>
       </c>
       <c r="L16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M16" t="n">
-        <v>2000.0</v>
+        <v>5793.0</v>
       </c>
       <c r="N16" t="n">
-        <v>359483.0</v>
+        <v>121886.0</v>
       </c>
       <c r="O16" t="n">
-        <v>1551.0</v>
+        <v>2572.0</v>
       </c>
       <c r="P16" t="n">
-        <v>7.18965036E8</v>
+        <v>7.06088154E8</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.9</v>
+        <v>97.6</v>
       </c>
       <c r="R16" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="T16" t="n">
         <v>93.1</v>
       </c>
-      <c r="S16" t="n">
-        <v>95.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="U16" t="e">
-        <v>#N/A</v>
+      <c r="U16" t="n">
+        <v>95.3</v>
       </c>
       <c r="V16" t="n">
-        <v>94.9</v>
+        <v>92.9</v>
       </c>
       <c r="W16" t="n">
-        <v>89.3</v>
+        <v>84.7</v>
       </c>
       <c r="X16" t="n">
-        <v>78.7</v>
+        <v>8.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.2</v>
+        <v>49.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>48.9</v>
+        <v>27.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.6</v>
+        <v>57.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>64.7</v>
+        <v>17.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.8</v>
+        <v>73.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>52.9</v>
+        <v>28625.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>24674.0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2616.0</v>
+        <v>5646.0</v>
+      </c>
+      <c r="AF16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH16" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.0211103E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AM16" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN16" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO16" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ16" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.0200211E7</v>
+        <v>2.0211028E7</v>
       </c>
       <c r="AS16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>224</v>
+        <v>198</v>
+      </c>
+      <c r="AT16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU16" t="n">
         <v>10000.0</v>
       </c>
       <c r="AV16" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AW16" t="n">
-        <v>75000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.5E8</v>
+        <v>7.0E8</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.25</v>
+        <v>0.236902666847164</v>
       </c>
       <c r="AZ16" t="n">
-        <v>3.0E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA16" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="BB16" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="BC16" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="BD16" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="BE16" t="n">
-        <v>2.03</v>
+        <v>5.24</v>
       </c>
       <c r="BF16" t="n">
-        <v>328.0</v>
+        <v>454.0</v>
       </c>
       <c r="BG16" t="s">
+        <v>285</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>297</v>
+      </c>
+      <c r="BN16" t="s">
         <v>308</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>312</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BM16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17" t="n">
-        <v>2.901329438E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D17" t="e">
         <v>#N/A</v>
@@ -4299,198 +4218,198 @@
         <v>#N/A</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H17" t="n">
-        <v>71.0</v>
+        <v>115.0</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K17" t="n">
-        <v>156.0</v>
+        <v>272.0</v>
       </c>
       <c r="L17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M17" t="n">
-        <v>15847.0</v>
+        <v>9464.0</v>
       </c>
       <c r="N17" t="n">
-        <v>97871.0</v>
+        <v>148705.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1959.0</v>
+        <v>3131.0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.55096837E9</v>
+        <v>1.407347538E9</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.0</v>
+        <v>96.1</v>
       </c>
       <c r="R17" t="n">
-        <v>81.8</v>
+        <v>79.1</v>
       </c>
       <c r="S17" t="n">
-        <v>95.6</v>
+        <v>96.1</v>
       </c>
       <c r="T17" t="n">
-        <v>93.9</v>
-      </c>
-      <c r="U17" t="e">
-        <v>#N/A</v>
+        <v>93.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>95.4</v>
       </c>
       <c r="V17" t="n">
-        <v>95.1</v>
+        <v>95.8</v>
       </c>
       <c r="W17" t="n">
-        <v>94.4</v>
+        <v>90.3</v>
       </c>
       <c r="X17" t="n">
-        <v>82.2</v>
+        <v>8.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.2</v>
+        <v>57.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>53.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.1</v>
+        <v>48.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>68.1</v>
+        <v>31.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.9</v>
+        <v>70.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>79.2</v>
+        <v>29575.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>29138.0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3038.0</v>
+        <v>7757.0</v>
+      </c>
+      <c r="AF17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG17" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH17" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.0220624E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM17" t="s">
         <v>162</v>
       </c>
-      <c r="AM17" t="s">
-        <v>176</v>
-      </c>
       <c r="AN17" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO17" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP17" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ17" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.0190923E7</v>
+        <v>2.0211111E7</v>
       </c>
       <c r="AS17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>225</v>
+        <v>86</v>
+      </c>
+      <c r="AT17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU17" t="n">
-        <v>12710.0</v>
+        <v>13939.0</v>
       </c>
       <c r="AV17" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="AW17" t="n">
-        <v>35000.0</v>
+        <v>47723.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.4485E8</v>
+        <v>6.65210897E8</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.151</v>
+        <v>0.251783420752951</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.9548E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA17" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BB17" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="BC17" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="BD17" t="s">
-        <v>290</v>
-      </c>
-      <c r="BE17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF17" t="e">
-        <v>#N/A</v>
+        <v>267</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>470.0</v>
       </c>
       <c r="BG17" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="BH17" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="BI17" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ17" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK17" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL17" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="BM17" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="BN17" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" t="n">
-        <v>2.901329438E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D18" t="e">
         <v>#N/A</v>
@@ -4499,88 +4418,88 @@
         <v>#N/A</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H18" t="n">
-        <v>72.0</v>
+        <v>113.0</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K18" t="n">
-        <v>269.0</v>
+        <v>273.0</v>
       </c>
       <c r="L18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M18" t="n">
-        <v>9146.0</v>
+        <v>7508.0</v>
       </c>
       <c r="N18" t="n">
-        <v>95965.0</v>
+        <v>114259.0</v>
       </c>
       <c r="O18" t="n">
-        <v>2390.0</v>
+        <v>3071.0</v>
       </c>
       <c r="P18" t="n">
-        <v>8.77693939E8</v>
+        <v>8.57858458E8</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.3</v>
+        <v>98.2</v>
       </c>
       <c r="R18" t="n">
-        <v>83.3</v>
+        <v>68.3</v>
       </c>
       <c r="S18" t="n">
-        <v>95.6</v>
+        <v>96.0</v>
       </c>
       <c r="T18" t="n">
-        <v>93.9</v>
-      </c>
-      <c r="U18" t="e">
-        <v>#N/A</v>
+        <v>94.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>95.5</v>
       </c>
       <c r="V18" t="n">
-        <v>95.1</v>
+        <v>95.8</v>
       </c>
       <c r="W18" t="n">
-        <v>92.3</v>
+        <v>88.9</v>
       </c>
       <c r="X18" t="n">
-        <v>80.9</v>
+        <v>9.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.9</v>
+        <v>59.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>55.7</v>
+        <v>20.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.4</v>
+        <v>63.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>67.4</v>
+        <v>14.1</v>
       </c>
       <c r="AC18" t="n">
-        <v>3.6</v>
+        <v>70.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>79.5</v>
+        <v>28945.0</v>
       </c>
       <c r="AE18" t="n">
-        <v>27946.0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>5029.0</v>
+        <v>7878.0</v>
+      </c>
+      <c r="AF18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH18" t="e">
         <v>#N/A</v>
@@ -4589,108 +4508,108 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN18" t="s">
         <v>163</v>
       </c>
-      <c r="AM18" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>177</v>
-      </c>
       <c r="AO18" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP18" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ18" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.0201119E7</v>
+        <v>2.021121E7</v>
       </c>
       <c r="AS18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>226</v>
+        <v>87</v>
+      </c>
+      <c r="AT18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU18" t="n">
-        <v>9886.0</v>
+        <v>9511.0</v>
       </c>
       <c r="AV18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>39816.0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>3.78689976E8</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.14333477998051</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2.641996423E9</v>
+      </c>
+      <c r="BA18" t="s">
         <v>232</v>
       </c>
-      <c r="AW18" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>2.4715E8</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>2.9548E9</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>253</v>
-      </c>
       <c r="BB18" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="BC18" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="BD18" t="s">
-        <v>290</v>
-      </c>
-      <c r="BE18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF18" t="e">
-        <v>#N/A</v>
+        <v>273</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>470.0</v>
       </c>
       <c r="BG18" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="BH18" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="BI18" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ18" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK18" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL18" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="BM18" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="BN18" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.0211105E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
       <c r="C19" t="n">
-        <v>2.590729371E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D19" t="e">
         <v>#N/A</v>
@@ -4699,198 +4618,198 @@
         <v>#N/A</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H19" t="n">
-        <v>59.0</v>
+        <v>114.0</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
         <v>108</v>
       </c>
       <c r="K19" t="n">
-        <v>289.0</v>
+        <v>274.0</v>
       </c>
       <c r="L19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M19" t="n">
-        <v>8535.0</v>
+        <v>8196.0</v>
       </c>
       <c r="N19" t="n">
-        <v>90572.0</v>
+        <v>97650.0</v>
       </c>
       <c r="O19" t="n">
-        <v>3594.0</v>
+        <v>2773.0</v>
       </c>
       <c r="P19" t="n">
-        <v>7.7302905E8</v>
+        <v>8.00342375E8</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.5</v>
+        <v>98.0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.7</v>
+        <v>78.8</v>
       </c>
       <c r="S19" t="n">
-        <v>94.6</v>
+        <v>95.8</v>
       </c>
       <c r="T19" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="U19" t="e">
-        <v>#N/A</v>
+        <v>93.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>95.1</v>
       </c>
       <c r="V19" t="n">
-        <v>94.1</v>
+        <v>96.5</v>
       </c>
       <c r="W19" t="n">
-        <v>96.4</v>
+        <v>91.0</v>
       </c>
       <c r="X19" t="n">
-        <v>89.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.9</v>
+        <v>58.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>61.6</v>
+        <v>24.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.2</v>
+        <v>62.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>73.2</v>
+        <v>18.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.5</v>
+        <v>84.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>79.7</v>
+        <v>29019.0</v>
       </c>
       <c r="AE19" t="n">
-        <v>28473.0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>10436.0</v>
+        <v>6762.0</v>
+      </c>
+      <c r="AF19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG19" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH19" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.0220822E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO19" t="s">
         <v>164</v>
       </c>
-      <c r="AM19" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>178</v>
-      </c>
       <c r="AP19" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ19" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.0210409E7</v>
+        <v>2.0220311E7</v>
       </c>
       <c r="AS19" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="AT19" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU19" t="n">
-        <v>8464.0</v>
+        <v>8650.0</v>
       </c>
       <c r="AV19" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AW19" t="n">
-        <v>35280.0</v>
+        <v>13418.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>2.9860992E8</v>
+        <v>1.160657E8</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.0971397380115092</v>
+        <v>0.0439310587211949</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3.07402435E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA19" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="BB19" t="s">
+        <v>256</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD19" t="s">
         <v>274</v>
       </c>
-      <c r="BC19" t="s">
-        <v>290</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>290</v>
-      </c>
       <c r="BE19" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="BF19" t="n">
-        <v>494.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG19" t="s">
+        <v>283</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>298</v>
+      </c>
+      <c r="BN19" t="s">
         <v>309</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>312</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>317</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>319</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" t="n">
-        <v>2.901329438E9</v>
+        <v>3.069499968E9</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -4899,88 +4818,88 @@
         <v>#N/A</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H20" t="n">
-        <v>73.0</v>
+        <v>119.0</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K20" t="n">
-        <v>271.0</v>
+        <v>275.0</v>
       </c>
       <c r="L20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M20" t="n">
-        <v>5793.0</v>
+        <v>11261.0</v>
       </c>
       <c r="N20" t="n">
-        <v>121886.0</v>
+        <v>113321.0</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.0</v>
+        <v>3604.0</v>
       </c>
       <c r="P20" t="n">
-        <v>7.06088154E8</v>
+        <v>1.276111489E9</v>
       </c>
       <c r="Q20" t="n">
-        <v>97.6</v>
+        <v>98.0</v>
       </c>
       <c r="R20" t="n">
-        <v>82.4</v>
+        <v>72.5</v>
       </c>
       <c r="S20" t="n">
         <v>96.0</v>
       </c>
       <c r="T20" t="n">
-        <v>93.1</v>
-      </c>
-      <c r="U20" t="e">
-        <v>#N/A</v>
+        <v>94.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>95.4</v>
       </c>
       <c r="V20" t="n">
-        <v>95.3</v>
+        <v>95.9</v>
       </c>
       <c r="W20" t="n">
-        <v>92.9</v>
+        <v>89.4</v>
       </c>
       <c r="X20" t="n">
-        <v>84.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.6</v>
+        <v>54.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>49.0</v>
+        <v>27.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>27.1</v>
+        <v>64.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>57.0</v>
+        <v>15.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>17.7</v>
+        <v>70.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>73.7</v>
+        <v>29580.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>28625.0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>5646.0</v>
+        <v>9346.0</v>
+      </c>
+      <c r="AF20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH20" t="e">
         <v>#N/A</v>
@@ -4989,97 +4908,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK20" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP20" t="s">
         <v>165</v>
       </c>
-      <c r="AM20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>179</v>
-      </c>
       <c r="AQ20" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AR20" t="n">
-        <v>2.0211028E7</v>
+        <v>2.0220304E7</v>
       </c>
       <c r="AS20" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="AT20" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU20" t="n">
-        <v>10000.0</v>
+        <v>13279.0</v>
       </c>
       <c r="AV20" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AW20" t="n">
-        <v>70000.0</v>
+        <v>45518.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.0E8</v>
+        <v>6.04433522E8</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.236902666847164</v>
+        <v>0.223433630117804</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2.9548E9</v>
+        <v>2.705203875E9</v>
       </c>
       <c r="BA20" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="BB20" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="BC20" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="BD20" t="s">
+        <v>275</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>283</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM20" t="s">
         <v>298</v>
       </c>
-      <c r="BE20" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>454.0</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>311</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>312</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>317</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>323</v>
-      </c>
       <c r="BN20" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21">
@@ -5099,157 +5018,157 @@
         <v>#N/A</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H21" t="n">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K21" t="n">
-        <v>272.0</v>
+        <v>254.0</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M21" t="n">
-        <v>9464.0</v>
+        <v>13147.0</v>
       </c>
       <c r="N21" t="n">
-        <v>148705.0</v>
+        <v>99921.0</v>
       </c>
       <c r="O21" t="n">
-        <v>3131.0</v>
+        <v>2630.0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.407347538E9</v>
+        <v>1.313660155E9</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.1</v>
+        <v>98.1</v>
       </c>
       <c r="R21" t="n">
-        <v>79.1</v>
+        <v>76.3</v>
       </c>
       <c r="S21" t="n">
         <v>96.1</v>
       </c>
       <c r="T21" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="U21" t="e">
-        <v>#N/A</v>
+        <v>93.8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>95.5</v>
       </c>
       <c r="V21" t="n">
-        <v>95.4</v>
+        <v>96.3</v>
       </c>
       <c r="W21" t="n">
-        <v>95.8</v>
+        <v>91.1</v>
       </c>
       <c r="X21" t="n">
-        <v>90.3</v>
+        <v>8.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.8</v>
+        <v>60.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>57.7</v>
+        <v>22.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>23.8</v>
+        <v>64.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>48.3</v>
+        <v>16.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>31.9</v>
+        <v>81.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>70.9</v>
+        <v>29810.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>29575.0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>7757.0</v>
+        <v>5861.0</v>
+      </c>
+      <c r="AF21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG21" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH21" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.0220818E7</v>
+        <v>2.022081E7</v>
       </c>
       <c r="AJ21" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL21" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AM21" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN21" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO21" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP21" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ21" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.0211111E7</v>
+        <v>2.0220325E7</v>
       </c>
       <c r="AS21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AT21" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU21" t="n">
-        <v>13939.0</v>
+        <v>12639.0</v>
       </c>
       <c r="AV21" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="AW21" t="n">
-        <v>47723.0</v>
+        <v>25339.0</v>
       </c>
       <c r="AX21" t="n">
-        <v>6.65210897E8</v>
+        <v>3.20259621E8</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.251783420752951</v>
+        <v>0.121218794322342</v>
       </c>
       <c r="AZ21" t="n">
         <v>2.641996423E9</v>
       </c>
       <c r="BA21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="BB21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="BC21" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="BD21" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="BE21" t="n">
         <v>3.27</v>
@@ -5258,28 +5177,28 @@
         <v>470.0</v>
       </c>
       <c r="BG21" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH21" t="n">
         <v>30.0</v>
       </c>
       <c r="BI21" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ21" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK21" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL21" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="BM21" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="BN21" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22">
@@ -5287,10 +5206,10 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="n">
-        <v>3.022916505E9</v>
+        <v>3.069499968E9</v>
       </c>
       <c r="D22" t="e">
         <v>#N/A</v>
@@ -5299,88 +5218,88 @@
         <v>#N/A</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H22" t="n">
-        <v>113.0</v>
+        <v>121.0</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0</v>
+        <v>276.0</v>
       </c>
       <c r="L22" t="s">
+        <v>129</v>
+      </c>
+      <c r="M22" t="n">
+        <v>18792.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>101242.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2548.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.9025476E9</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="R22" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>30002.0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5372.0</v>
+      </c>
+      <c r="AF22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" t="s">
         <v>134</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7508.0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>114259.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3071.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8.57858458E8</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="U22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>88.9</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>28945.0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>7878.0</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>143</v>
       </c>
       <c r="AH22" t="e">
         <v>#N/A</v>
@@ -5389,97 +5308,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL22" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AM22" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN22" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO22" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP22" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AR22" t="n">
-        <v>2.021121E7</v>
+        <v>2.0220407E7</v>
       </c>
       <c r="AS22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT22" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU22" t="n">
-        <v>9511.0</v>
+        <v>17131.0</v>
       </c>
       <c r="AV22" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="AW22" t="n">
-        <v>39816.0</v>
+        <v>57147.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.78689976E8</v>
+        <v>9.78985257E8</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.14333477998051</v>
+        <v>0.361889640203181</v>
       </c>
       <c r="AZ22" t="n">
-        <v>2.641996423E9</v>
+        <v>2.705203875E9</v>
       </c>
       <c r="BA22" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="BB22" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="BC22" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="BD22" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="BE22" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="BF22" t="n">
-        <v>470.0</v>
+        <v>480.0</v>
       </c>
       <c r="BG22" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH22" t="n">
         <v>30.0</v>
       </c>
       <c r="BI22" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ22" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK22" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL22" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="BM22" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="BN22" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
@@ -5499,157 +5418,157 @@
         <v>#N/A</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H23" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K23" t="n">
-        <v>274.0</v>
+        <v>290.0</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M23" t="n">
-        <v>8196.0</v>
+        <v>13134.0</v>
       </c>
       <c r="N23" t="n">
-        <v>97650.0</v>
+        <v>101100.0</v>
       </c>
       <c r="O23" t="n">
-        <v>2773.0</v>
+        <v>3168.0</v>
       </c>
       <c r="P23" t="n">
-        <v>8.00342375E8</v>
+        <v>1.327847231E9</v>
       </c>
       <c r="Q23" t="n">
         <v>98.0</v>
       </c>
       <c r="R23" t="n">
-        <v>78.8</v>
+        <v>77.2</v>
       </c>
       <c r="S23" t="n">
-        <v>95.8</v>
+        <v>96.1</v>
       </c>
       <c r="T23" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="U23" t="e">
-        <v>#N/A</v>
+        <v>93.3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>95.5</v>
       </c>
       <c r="V23" t="n">
-        <v>95.1</v>
+        <v>96.0</v>
       </c>
       <c r="W23" t="n">
-        <v>96.5</v>
+        <v>90.1</v>
       </c>
       <c r="X23" t="n">
-        <v>91.0</v>
+        <v>8.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.8</v>
+        <v>58.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>58.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>24.7</v>
+        <v>62.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>62.7</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>18.9</v>
+        <v>82.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>84.3</v>
+        <v>30019.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>29019.0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>6762.0</v>
+        <v>7667.0</v>
+      </c>
+      <c r="AF23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG23" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH23" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ23" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL23" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AM23" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN23" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP23" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ23" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.0220311E7</v>
+        <v>2.0220428E7</v>
       </c>
       <c r="AS23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AT23" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU23" t="n">
-        <v>8650.0</v>
+        <v>12248.0</v>
       </c>
       <c r="AV23" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="AW23" t="n">
-        <v>13418.0</v>
+        <v>40941.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>1.160657E8</v>
+        <v>5.01445368E8</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.0439310587211949</v>
+        <v>0.189797898148025</v>
       </c>
       <c r="AZ23" t="n">
         <v>2.641996423E9</v>
       </c>
       <c r="BA23" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="BB23" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="BC23" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="BD23" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="BE23" t="n">
         <v>3.27</v>
@@ -5658,28 +5577,28 @@
         <v>470.0</v>
       </c>
       <c r="BG23" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH23" t="n">
         <v>30.0</v>
       </c>
       <c r="BI23" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ23" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK23" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL23" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="BM23" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="BN23" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24">
@@ -5687,10 +5606,10 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" t="n">
-        <v>3.069499968E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D24" t="e">
         <v>#N/A</v>
@@ -5699,88 +5618,88 @@
         <v>#N/A</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H24" t="n">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0</v>
+        <v>278.0</v>
       </c>
       <c r="L24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M24" t="n">
-        <v>11261.0</v>
+        <v>13446.0</v>
       </c>
       <c r="N24" t="n">
-        <v>113321.0</v>
+        <v>99434.0</v>
       </c>
       <c r="O24" t="n">
-        <v>3604.0</v>
+        <v>2869.0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.276111489E9</v>
+        <v>1.336986912E9</v>
       </c>
       <c r="Q24" t="n">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="R24" t="n">
-        <v>72.5</v>
+        <v>77.0</v>
       </c>
       <c r="S24" t="n">
         <v>96.0</v>
       </c>
       <c r="T24" t="n">
-        <v>94.4</v>
-      </c>
-      <c r="U24" t="e">
-        <v>#N/A</v>
+        <v>93.4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>95.5</v>
       </c>
       <c r="V24" t="n">
-        <v>95.4</v>
+        <v>96.0</v>
       </c>
       <c r="W24" t="n">
-        <v>95.9</v>
+        <v>89.8</v>
       </c>
       <c r="X24" t="n">
-        <v>89.4</v>
+        <v>8.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.8</v>
+        <v>59.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>54.1</v>
+        <v>21.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>27.5</v>
+        <v>61.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>64.3</v>
+        <v>18.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>15.7</v>
+        <v>84.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>70.8</v>
+        <v>29708.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>29580.0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9346.0</v>
+        <v>7021.0</v>
+      </c>
+      <c r="AF24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG24" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH24" t="e">
         <v>#N/A</v>
@@ -5789,108 +5708,108 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ24" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL24" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AM24" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN24" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO24" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP24" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ24" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.0220304E7</v>
+        <v>2.0220505E7</v>
       </c>
       <c r="AS24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT24" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU24" t="n">
-        <v>13279.0</v>
+        <v>13151.0</v>
       </c>
       <c r="AV24" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="AW24" t="n">
-        <v>45518.0</v>
+        <v>50211.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>6.04433522E8</v>
+        <v>6.60324861E8</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.223433630117804</v>
+        <v>0.249934048074977</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2.705203875E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA24" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="BB24" t="s">
+        <v>261</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="BG24" t="s">
         <v>283</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>301</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>480.0</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>309</v>
       </c>
       <c r="BH24" t="n">
         <v>30.0</v>
       </c>
       <c r="BI24" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ24" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK24" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL24" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="BM24" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="BN24" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0220715E7</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>3.022916505E9</v>
+        <v>2.686871619E9</v>
       </c>
       <c r="D25" t="e">
         <v>#N/A</v>
@@ -5899,198 +5818,198 @@
         <v>#N/A</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0</v>
+        <v>99.0</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K25" t="n">
-        <v>254.0</v>
+        <v>279.0</v>
       </c>
       <c r="L25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M25" t="n">
-        <v>13147.0</v>
+        <v>4270.0</v>
       </c>
       <c r="N25" t="n">
-        <v>99921.0</v>
+        <v>112157.0</v>
       </c>
       <c r="O25" t="n">
-        <v>2630.0</v>
+        <v>3192.0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.313660155E9</v>
+        <v>4.78908775E8</v>
       </c>
       <c r="Q25" t="n">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="R25" t="n">
-        <v>76.3</v>
+        <v>75.6</v>
       </c>
       <c r="S25" t="n">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="T25" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="U25" t="e">
-        <v>#N/A</v>
+        <v>94.7</v>
+      </c>
+      <c r="U25" t="n">
+        <v>95.7</v>
       </c>
       <c r="V25" t="n">
         <v>95.5</v>
       </c>
       <c r="W25" t="n">
-        <v>96.3</v>
+        <v>88.2</v>
       </c>
       <c r="X25" t="n">
-        <v>91.1</v>
+        <v>8.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.4</v>
+        <v>57.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>60.7</v>
+        <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.0</v>
+        <v>63.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>64.3</v>
+        <v>13.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>16.6</v>
+        <v>72.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>81.9</v>
+        <v>28245.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>29810.0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>5861.0</v>
+        <v>8170.0</v>
+      </c>
+      <c r="AF25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG25" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH25" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.022081E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ25" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL25" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM25" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN25" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO25" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP25" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ25" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AR25" t="n">
-        <v>2.0220325E7</v>
+        <v>2.0220517E7</v>
       </c>
       <c r="AS25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AT25" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU25" t="n">
-        <v>12639.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AV25" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="AW25" t="n">
-        <v>25339.0</v>
+        <v>60000.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.20259621E8</v>
+        <v>6.0E8</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.121218794322342</v>
+        <v>0.2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>2.641996423E9</v>
+        <v>3.0E9</v>
       </c>
       <c r="BA25" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="BB25" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="BC25" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="BD25" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="BE25" t="n">
-        <v>3.27</v>
+        <v>3.02</v>
       </c>
       <c r="BF25" t="n">
-        <v>470.0</v>
+        <v>520.0</v>
       </c>
       <c r="BG25" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH25" t="n">
         <v>30.0</v>
       </c>
       <c r="BI25" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="BJ25" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="BK25" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="BL25" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="BM25" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="BN25" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0220718E7</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>3.069499968E9</v>
+        <v>3.002834824E9</v>
       </c>
       <c r="D26" t="e">
         <v>#N/A</v>
@@ -6099,88 +6018,88 @@
         <v>#N/A</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H26" t="n">
-        <v>121.0</v>
+        <v>107.0</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K26" t="n">
-        <v>276.0</v>
+        <v>280.0</v>
       </c>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M26" t="n">
-        <v>18792.0</v>
+        <v>9000.0</v>
       </c>
       <c r="N26" t="n">
-        <v>101242.0</v>
+        <v>282445.0</v>
       </c>
       <c r="O26" t="n">
-        <v>2548.0</v>
+        <v>2156.0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.9025476E9</v>
+        <v>2.542002423E9</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.9</v>
+        <v>95.8</v>
       </c>
       <c r="R26" t="n">
-        <v>81.7</v>
+        <v>87.9</v>
       </c>
       <c r="S26" t="n">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="T26" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="U26" t="e">
-        <v>#N/A</v>
+        <v>93.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>95.4</v>
       </c>
       <c r="V26" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="W26" t="n">
-        <v>96.6</v>
+        <v>90.2</v>
       </c>
       <c r="X26" t="n">
-        <v>91.2</v>
+        <v>9.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.1</v>
+        <v>61.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>54.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>28.5</v>
+        <v>46.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>60.3</v>
+        <v>33.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>21.3</v>
+        <v>83.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>84.4</v>
+        <v>29948.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>30002.0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>5372.0</v>
+        <v>3886.0</v>
+      </c>
+      <c r="AF26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG26" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH26" t="e">
         <v>#N/A</v>
@@ -6189,897 +6108,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ26" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL26" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AM26" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AN26" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AO26" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AP26" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AQ26" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AR26" t="n">
-        <v>2.0220407E7</v>
+        <v>2.0220622E7</v>
       </c>
       <c r="AS26" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="AT26" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU26" t="n">
-        <v>17131.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AV26" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AW26" t="n">
-        <v>57147.0</v>
+        <v>40000.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>9.78985257E8</v>
+        <v>4.0E8</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.361889640203181</v>
+        <v>0.1367</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2.705203875E9</v>
+        <v>2.925739924E9</v>
       </c>
       <c r="BA26" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="BB26" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="BC26" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="BD26" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="BE26" t="n">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="BF26" t="n">
-        <v>480.0</v>
+        <v>450.0</v>
       </c>
       <c r="BG26" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="BH26" t="n">
         <v>30.0</v>
       </c>
       <c r="BI26" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN26" t="s">
         <v>312</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>324</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2.0220722E7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.022916505E9</v>
-      </c>
-      <c r="D27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" t="n">
-        <v>290.0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" t="n">
-        <v>13134.0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>101100.0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3168.0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.327847231E9</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>96.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="U27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V27" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="W27" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>90.1</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>30019.0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7667.0</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>2.0220822E7</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>205</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>2.0220428E7</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>12248.0</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>40941.0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>5.01445368E8</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0.189797898148025</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>2.641996423E9</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>470.0</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>309</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>312</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>324</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2.0220722E7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.022916505E9</v>
-      </c>
-      <c r="D28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" t="n">
-        <v>278.0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>140</v>
-      </c>
-      <c r="M28" t="n">
-        <v>13446.0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>99434.0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2869.0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.336986912E9</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>97.9</v>
-      </c>
-      <c r="R28" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="U28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V28" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>29708.0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>7021.0</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>2.0220505E7</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>13151.0</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>50211.0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>6.60324861E8</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0.249934048074977</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>2.641996423E9</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>261</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>287</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>305</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>470.0</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>309</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>312</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>324</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2.0220715E7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.686871619E9</v>
-      </c>
-      <c r="D29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" t="n">
-        <v>279.0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4270.0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>112157.0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3192.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4.78908775E8</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>97.9</v>
-      </c>
-      <c r="R29" t="n">
-        <v>75.6</v>
-      </c>
-      <c r="S29" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="T29" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="U29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V29" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="W29" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>28245.0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>8170.0</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>2.0220517E7</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="AV29" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>6.0E8</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>3.0E9</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>262</v>
-      </c>
-      <c r="BB29" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>306</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>520.0</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>309</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>312</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2.0220718E7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.002834824E9</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30" t="n">
-        <v>280.0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>142</v>
-      </c>
-      <c r="M30" t="n">
-        <v>9000.0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>282445.0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2156.0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.542002423E9</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="R30" t="n">
-        <v>87.9</v>
-      </c>
-      <c r="S30" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="T30" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="U30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V30" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="W30" t="n">
-        <v>95.6</v>
-      </c>
-      <c r="X30" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>29948.0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>3886.0</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>208</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>2.0220622E7</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>217</v>
-      </c>
-      <c r="AT30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>4.0E8</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>2.925739924E9</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>263</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>289</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD30" t="s">
-        <v>307</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BG30" t="s">
-        <v>309</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>312</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>326</v>
-      </c>
-      <c r="BN30" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/2022-08-18 Prepare for UTSA/STARR.SGLT2.V5.agg.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.SGLT2.V5.agg.xlsx
@@ -74,6 +74,9 @@
     <t>Q30 Bases in RNA Read</t>
   </si>
   <si>
+    <t>Q30 Bases in Sample Index</t>
+  </si>
+  <si>
     <t>Q30 Bases in UMI</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>Median UMI Counts per Cell</t>
   </si>
   <si>
-    <t>Q30 Bases in Sample Index</t>
-  </si>
-  <si>
     <t>Agg</t>
   </si>
   <si>
@@ -356,7 +356,7 @@
     <t>76649_V5_combine_force14435</t>
   </si>
   <si>
-    <t>76660_V5_combine_force17531</t>
+    <t>76660_V5_combine_force17696</t>
   </si>
   <si>
     <t>76661_V5_combine_force14743</t>
@@ -440,7 +440,7 @@
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14435/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/molecule_info.h5</t>
@@ -527,7 +527,7 @@
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14435/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/metrics_summary.csv</t>
@@ -1262,41 +1262,41 @@
       <c r="T2" t="n">
         <v>93.1</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V2" t="n">
         <v>95.1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>97.1</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>91.4</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>8.0</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>60.1</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>23.3</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>69.5</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>81.9</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>28312.0</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>4261.0</v>
-      </c>
-      <c r="AF2" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG2" t="s">
         <v>134</v>
@@ -1462,41 +1462,41 @@
       <c r="T3" t="n">
         <v>92.4</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V3" t="n">
         <v>94.3</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>94.7</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>87.7</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>8.3</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>60.2</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>19.2</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>68.6</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>8.9</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>82.8</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>29313.0</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>12182.0</v>
-      </c>
-      <c r="AF3" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG3" t="s">
         <v>134</v>
@@ -1662,41 +1662,41 @@
       <c r="T4" t="n">
         <v>93.3</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="n">
         <v>94.9</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>96.0</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>89.9</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>60.3</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>21.5</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>68.2</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>11.7</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>89.6</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>29020.0</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>7138.0</v>
-      </c>
-      <c r="AF4" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG4" t="s">
         <v>134</v>
@@ -1862,41 +1862,41 @@
       <c r="T5" t="n">
         <v>91.4</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="n">
         <v>94.7</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>92.5</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>84.8</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>56.9</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>66.8</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>74.0</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>27459.0</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>3098.0</v>
-      </c>
-      <c r="AF5" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG5" t="s">
         <v>134</v>
@@ -2062,41 +2062,41 @@
       <c r="T6" t="n">
         <v>92.9</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="n">
         <v>94.3</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>95.8</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>90.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>60.8</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>22.3</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>53.7</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>27.9</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>82.4</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>30088.0</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>6185.0</v>
-      </c>
-      <c r="AF6" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG6" t="s">
         <v>134</v>
@@ -2233,19 +2233,19 @@
         <v>104</v>
       </c>
       <c r="K7" t="n">
-        <v>297.0</v>
+        <v>300.0</v>
       </c>
       <c r="L7" t="s">
         <v>114</v>
       </c>
       <c r="M7" t="n">
-        <v>17531.0</v>
+        <v>17696.0</v>
       </c>
       <c r="N7" t="n">
-        <v>93904.0</v>
+        <v>93029.0</v>
       </c>
       <c r="O7" t="n">
-        <v>2524.0</v>
+        <v>2503.0</v>
       </c>
       <c r="P7" t="n">
         <v>1.646232433E9</v>
@@ -2262,41 +2262,41 @@
       <c r="T7" t="n">
         <v>94.3</v>
       </c>
-      <c r="U7" t="n">
-        <v>95.8</v>
+      <c r="U7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="V7" t="n">
         <v>95.8</v>
       </c>
       <c r="W7" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="X7" t="n">
         <v>89.8</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>58.9</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>22.6</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>57.6</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>22.3</v>
       </c>
-      <c r="AC7" t="n">
-        <v>83.0</v>
-      </c>
       <c r="AD7" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="AE7" t="n">
         <v>29995.0</v>
       </c>
-      <c r="AE7" t="n">
-        <v>5013.0</v>
-      </c>
-      <c r="AF7" t="e">
-        <v>#N/A</v>
+      <c r="AF7" t="n">
+        <v>4942.0</v>
       </c>
       <c r="AG7" t="s">
         <v>134</v>
@@ -2305,7 +2305,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ7" t="s">
         <v>135</v>
@@ -2462,41 +2462,41 @@
       <c r="T8" t="n">
         <v>94.2</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="n">
         <v>96.0</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>96.6</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>90.4</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>8.0</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>59.0</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>23.4</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>64.0</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>16.7</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>85.3</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>29313.0</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>4230.0</v>
-      </c>
-      <c r="AF8" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG8" t="s">
         <v>134</v>
@@ -2662,41 +2662,41 @@
       <c r="T9" t="n">
         <v>94.5</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V9" t="n">
         <v>96.3</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>94.5</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>83.6</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>57.4</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>17.7</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>68.1</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>74.2</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>28572.0</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>2974.0</v>
-      </c>
-      <c r="AF9" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG9" t="s">
         <v>134</v>
@@ -2862,41 +2862,41 @@
       <c r="T10" t="n">
         <v>94.7</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="n">
         <v>96.6</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>96.7</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>91.4</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>62.7</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>20.6</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>76.1</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>4.9</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>85.7</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>27161.0</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>6703.0</v>
-      </c>
-      <c r="AF10" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG10" t="s">
         <v>134</v>
@@ -3062,41 +3062,41 @@
       <c r="T11" t="n">
         <v>93.6</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="n">
         <v>94.6</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>96.6</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>88.7</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>9.8</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>62.3</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>16.6</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>71.7</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>5.1</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>69.2</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>28155.0</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>5863.0</v>
-      </c>
-      <c r="AF11" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG11" t="s">
         <v>134</v>
@@ -3262,41 +3262,41 @@
       <c r="T12" t="n">
         <v>93.7</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="n">
         <v>95.3</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>96.7</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>90.4</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>63.5</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>18.3</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>75.4</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>4.2</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>64.4</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>26965.0</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>3932.0</v>
-      </c>
-      <c r="AF12" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG12" t="s">
         <v>134</v>
@@ -3462,41 +3462,41 @@
       <c r="T13" t="n">
         <v>93.9</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="n">
         <v>95.1</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>94.4</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>82.2</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>53.9</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>21.1</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>68.1</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>4.9</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>79.2</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>29138.0</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>3038.0</v>
-      </c>
-      <c r="AF13" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG13" t="s">
         <v>134</v>
@@ -3662,41 +3662,41 @@
       <c r="T14" t="n">
         <v>93.9</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="n">
         <v>95.1</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>92.3</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>80.9</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>55.7</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>17.4</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>67.4</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>3.6</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>79.5</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>27946.0</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>5029.0</v>
-      </c>
-      <c r="AF14" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG14" t="s">
         <v>134</v>
@@ -3862,41 +3862,41 @@
       <c r="T15" t="n">
         <v>93.4</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="n">
         <v>94.1</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>96.4</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>89.7</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>61.6</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>20.2</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>73.2</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>6.5</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>79.7</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>28473.0</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>10436.0</v>
-      </c>
-      <c r="AF15" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG15" t="s">
         <v>134</v>
@@ -4062,41 +4062,41 @@
       <c r="T16" t="n">
         <v>93.1</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="n">
         <v>95.3</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>92.9</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>84.7</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>49.0</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>27.1</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>57.0</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>17.7</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>73.7</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>28625.0</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>5646.0</v>
-      </c>
-      <c r="AF16" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG16" t="s">
         <v>134</v>
@@ -4262,41 +4262,41 @@
       <c r="T17" t="n">
         <v>93.3</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V17" t="n">
         <v>95.4</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>95.8</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>90.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>8.8</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>57.7</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>23.8</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>48.3</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>31.9</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>70.9</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>29575.0</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>7757.0</v>
-      </c>
-      <c r="AF17" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG17" t="s">
         <v>134</v>
@@ -4462,41 +4462,41 @@
       <c r="T18" t="n">
         <v>94.0</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="n">
         <v>95.5</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>95.8</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>88.9</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>9.1</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>59.1</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>20.7</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>63.9</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>14.1</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>70.8</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>28945.0</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>7878.0</v>
-      </c>
-      <c r="AF18" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG18" t="s">
         <v>134</v>
@@ -4662,41 +4662,41 @@
       <c r="T19" t="n">
         <v>93.5</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="n">
         <v>95.1</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>96.5</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>91.0</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>58.5</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>24.7</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>62.7</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>18.9</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>84.3</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>29019.0</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>6762.0</v>
-      </c>
-      <c r="AF19" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG19" t="s">
         <v>134</v>
@@ -4862,41 +4862,41 @@
       <c r="T20" t="n">
         <v>94.4</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="n">
         <v>95.4</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>95.9</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>89.4</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>54.1</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>27.5</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>64.3</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>15.7</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>70.8</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>29580.0</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>9346.0</v>
-      </c>
-      <c r="AF20" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG20" t="s">
         <v>134</v>
@@ -5062,41 +5062,41 @@
       <c r="T21" t="n">
         <v>93.8</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="n">
         <v>95.5</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>96.3</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>91.1</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>60.7</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>22.0</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>64.3</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>16.6</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>81.9</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>29810.0</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>5861.0</v>
-      </c>
-      <c r="AF21" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG21" t="s">
         <v>134</v>
@@ -5262,41 +5262,41 @@
       <c r="T22" t="n">
         <v>94.2</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="n">
         <v>95.5</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>96.6</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>91.2</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>54.7</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>28.5</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>60.3</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>21.3</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>84.4</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>30002.0</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
         <v>5372.0</v>
-      </c>
-      <c r="AF22" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG22" t="s">
         <v>134</v>
@@ -5462,41 +5462,41 @@
       <c r="T23" t="n">
         <v>93.3</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="n">
         <v>95.5</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>96.0</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>90.1</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>8.7</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>58.8</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>22.6</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>62.2</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>82.2</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>30019.0</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
         <v>7667.0</v>
-      </c>
-      <c r="AF23" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG23" t="s">
         <v>134</v>
@@ -5662,41 +5662,41 @@
       <c r="T24" t="n">
         <v>93.4</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="n">
         <v>95.5</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>96.0</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>89.8</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>59.9</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>21.6</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AB24" t="n">
         <v>61.6</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>18.2</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>84.5</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>29708.0</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>7021.0</v>
-      </c>
-      <c r="AF24" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG24" t="s">
         <v>134</v>
@@ -5862,41 +5862,41 @@
       <c r="T25" t="n">
         <v>94.7</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="n">
         <v>95.7</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>95.5</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>88.2</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>8.8</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>57.3</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>22.1</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
         <v>63.8</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>13.9</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>72.2</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>28245.0</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AF25" t="n">
         <v>8170.0</v>
-      </c>
-      <c r="AF25" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG25" t="s">
         <v>134</v>
@@ -6062,41 +6062,41 @@
       <c r="T26" t="n">
         <v>93.0</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="n">
         <v>95.4</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>95.6</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>90.2</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>9.1</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>61.5</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>19.6</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="n">
         <v>46.3</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>33.5</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>83.2</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="n">
         <v>29948.0</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
         <v>3886.0</v>
-      </c>
-      <c r="AF26" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG26" t="s">
         <v>134</v>
